--- a/data/tasks.xlsx
+++ b/data/tasks.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17030" windowHeight="8420" activeTab="2"/>
+    <workbookView windowWidth="19120" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_task_201" sheetId="1" r:id="rId1"/>
     <sheet name="test_task_305" sheetId="2" r:id="rId2"/>
     <sheet name="test_task_400" sheetId="3" r:id="rId3"/>
+    <sheet name="test_task_203" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -45,7 +46,7 @@
     <t>{
  "task_type":201,
  "dst_node":90,
- "target_vehicle":25
+ "target_vehicle":35
 }</t>
   </si>
   <si>
@@ -54,8 +55,8 @@
   <si>
     <t>{
  "task_type":305,
- "dst_nodes":[4,99],
- "target_vehicle":25
+ "dst_nodes":[90,31],
+ "target_vehicle":35
 }</t>
   </si>
   <si>
@@ -67,6 +68,16 @@
  "dst_node":[90,31],
  "target_vehicle":25,
  "ignore_sub_task_error":1
+}</t>
+  </si>
+  <si>
+    <t>test_task_203</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":203,
+ "target_vehicle":35,
+ "remote_control_id":1
 }</t>
   </si>
 </sst>
@@ -77,8 +88,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,16 +100,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -128,52 +146,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +182,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -204,15 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,11 +447,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,69 +536,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +564,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +582,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1064,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:E$1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1111,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:E$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1169,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1220,4 +1231,62 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/tasks.xlsx
+++ b/data/tasks.xlsx
@@ -4,20 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19120" windowHeight="9870" activeTab="1"/>
+    <workbookView windowWidth="18230" windowHeight="8350" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="test_task_201" sheetId="1" r:id="rId1"/>
-    <sheet name="test_task_305" sheetId="2" r:id="rId2"/>
-    <sheet name="test_task_400" sheetId="3" r:id="rId3"/>
-    <sheet name="test_task_203" sheetId="4" r:id="rId4"/>
+    <sheet name="test_task_101" sheetId="11" r:id="rId1"/>
+    <sheet name="test_task_102" sheetId="13" r:id="rId2"/>
+    <sheet name="test_task_103" sheetId="14" r:id="rId3"/>
+    <sheet name="test_task_201" sheetId="1" r:id="rId4"/>
+    <sheet name="test_task_203" sheetId="4" r:id="rId5"/>
+    <sheet name="test_task_204" sheetId="7" r:id="rId6"/>
+    <sheet name="test_task_206" sheetId="8" r:id="rId7"/>
+    <sheet name="test_task_302" sheetId="12" r:id="rId8"/>
+    <sheet name="test_task_303" sheetId="10" r:id="rId9"/>
+    <sheet name="test_task_304" sheetId="9" r:id="rId10"/>
+    <sheet name="test_task_305" sheetId="2" r:id="rId11"/>
+    <sheet name="test_task_400" sheetId="3" r:id="rId12"/>
+    <sheet name="test_304_sub_task" sheetId="5" r:id="rId13"/>
+    <sheet name="test_task_type_error_3203" sheetId="16" r:id="rId14"/>
+    <sheet name="test_task_none_3202" sheetId="17" r:id="rId15"/>
+    <sheet name="test_cancel_task" sheetId="6" r:id="rId16"/>
+    <sheet name="test_vehicle_none_3213" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -34,13 +47,43 @@
     <t>code</t>
   </si>
   <si>
+    <t>test_task_101</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/tasks/task/</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":101,
+ "x":1.29,
+ "y":1.11,
+ "target_vehicle":35
+}</t>
+  </si>
+  <si>
+    <t>test_task_102</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":102,
+ "segments":[[0.1,0.2],[2,3,3,3]],
+ "target_vehicle":35
+}</t>
+  </si>
+  <si>
+    <t>test_task_103</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":103,
+ "target_vehicle":35
+}</t>
+  </si>
+  <si>
     <t>test_task_201</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/tasks/task/</t>
   </si>
   <si>
     <t>{
@@ -50,27 +93,6 @@
 }</t>
   </si>
   <si>
-    <t>test_task_305</t>
-  </si>
-  <si>
-    <t>{
- "task_type":305,
- "dst_nodes":[90,31],
- "target_vehicle":35
-}</t>
-  </si>
-  <si>
-    <t>test_task_400</t>
-  </si>
-  <si>
-    <t>{
- "task_type":400,
- "dst_node":[90,31],
- "target_vehicle":25,
- "ignore_sub_task_error":1
-}</t>
-  </si>
-  <si>
     <t>test_task_203</t>
   </si>
   <si>
@@ -78,6 +100,126 @@
  "task_type":203,
  "target_vehicle":35,
  "remote_control_id":1
+}</t>
+  </si>
+  <si>
+    <t>test_task_204</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":204,
+ "target_vehicle":35,
+ "timeout":59
+}</t>
+  </si>
+  <si>
+    <t>test_task_206</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":206,
+ "target_vehicle":35
+}</t>
+  </si>
+  <si>
+    <t>test_task_302</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":302,
+ "target_vehicle":35,
+ "x":1.99,
+ "y":1.33,
+ "remote_control_id":1
+}</t>
+  </si>
+  <si>
+    <t>test_task_303</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":303,
+ "target_vehicle":35,
+ "dst_node":1
+}</t>
+  </si>
+  <si>
+    <t>test_task_304</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":304,
+ "target_vehicle":35,
+ "dst_node":1
+}</t>
+  </si>
+  <si>
+    <t>test_task_305</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":305,
+ "dst_nodes":[85,122],
+ "target_vehicle":35
+}</t>
+  </si>
+  <si>
+    <t>test_task_400</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":400,
+ "ignore_sub_task_error":1
+}</t>
+  </si>
+  <si>
+    <t>test_304_sub_task</t>
+  </si>
+  <si>
+    <t>{
+ "task_type":304,
+ "target_vehicle":32,
+ "dst_node":122
+}</t>
+  </si>
+  <si>
+    <t>test_task_type_error_3203</t>
+  </si>
+  <si>
+    <t>{
+ "target_vehicle":sunyan,
+ "task_type":305
+}</t>
+  </si>
+  <si>
+    <t>test_task_none_3202</t>
+  </si>
+  <si>
+    <t>/tasks/task/task_exe_status/</t>
+  </si>
+  <si>
+    <t>{
+ "task_id":1627329492285390123,
+ "action":1
+}</t>
+  </si>
+  <si>
+    <t>test_cancel_task</t>
+  </si>
+  <si>
+    <t>{
+ "action":4,
+ "task_id":0
+}</t>
+  </si>
+  <si>
+    <t>test_vehicle_none_3213</t>
+  </si>
+  <si>
+    <t>{
+ "target_vehicle":1,
+ "task_type":201,
+ "dst_node":4
 }</t>
   </si>
 </sst>
@@ -86,15 +228,91 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,24 +325,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,27 +372,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,77 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,43 +395,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +586,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,35 +622,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,34 +666,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1203,650 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="79" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="92" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1095,7 +1877,7 @@
     </row>
     <row r="2" s="5" customFormat="1" ht="70" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1104,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3">
         <v>2000</v>
@@ -1117,13 +1899,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1154,7 +1936,7 @@
     </row>
     <row r="2" ht="70" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1163,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>2000</v>
@@ -1175,13 +1957,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1210,9 +1992,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="92" customHeight="1" spans="1:5">
+    <row r="2" ht="70" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1221,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>2000</v>
@@ -1233,13 +2015,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1268,9 +2050,125 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" ht="56" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="98" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" ht="70" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1279,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>2000</v>
